--- a/Figures_summary.xlsx
+++ b/Figures_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/kxiang_mit_edu/Documents/My_Doc/Labwork/Postdoc/Paper_writing/Xiang_Bartel_2024/Nature_Communiactions_Revision_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/kxiang_mit_edu/Documents/My_Doc/Labwork/Postdoc/Paper_writing/Xiang_Bartel_2024/Nature_Communications_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="8_{DB9E9362-2022-B94D-A72B-02947F6D5237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CEEC68-4CFB-7C4B-B632-D703E608B7E7}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="8_{DB9E9362-2022-B94D-A72B-02947F6D5237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{828E01EC-85B2-A549-AC6B-11BEAAA80796}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="5820" windowWidth="28040" windowHeight="17440" xr2:uid="{9CA5939C-08A7-A546-B0AE-9BA2EA17907A}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="43800" windowHeight="24700" xr2:uid="{9CA5939C-08A7-A546-B0AE-9BA2EA17907A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <t>Library_CPEmos_N60_reanalysis</t>
   </si>
   <si>
-    <t>Supplementary Fig. 4b</t>
-  </si>
-  <si>
     <t>Supplementary Fig. 4c</t>
   </si>
   <si>
@@ -663,6 +660,9 @@
   </si>
   <si>
     <t>statistics of tail-length changes when different motifs were inserted to 3' UTRs predicted by PAL-AI-s (frog mRNAs, all PAS positions masked for insertion)</t>
+  </si>
+  <si>
+    <t>Supplementary Fig. 4f</t>
   </si>
 </sst>
 </file>
@@ -718,15 +718,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,10 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,10 +750,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123BB2DD-886A-0D4E-BADF-7EDA5407C270}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,13 +1110,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>110</v>
+      <c r="E2" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,13 +1127,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>104</v>
+      <c r="E3" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,13 +1144,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,13 +1161,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1188,13 +1178,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1205,13 +1195,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1222,13 +1212,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>118</v>
+        <v>136</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
@@ -1238,14 +1228,14 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>109</v>
+      <c r="C9" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,13 +1246,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1273,13 +1263,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1290,13 +1280,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1307,13 +1297,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,13 +1314,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1341,13 +1331,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1357,14 +1347,14 @@
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>142</v>
+      <c r="C16" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>104</v>
+        <v>146</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1374,14 +1364,14 @@
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>104</v>
+      <c r="C17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1391,14 +1381,14 @@
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>144</v>
+      <c r="C18" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1408,14 +1398,14 @@
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>144</v>
+      <c r="C19" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1425,31 +1415,31 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>144</v>
+      <c r="C20" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>144</v>
+      <c r="C21" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1459,14 +1449,14 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>144</v>
+      <c r="C22" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1476,14 +1466,14 @@
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>144</v>
+      <c r="C23" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1493,14 +1483,14 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>144</v>
+      <c r="C24" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1510,14 +1500,14 @@
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>144</v>
+      <c r="C25" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1528,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>104</v>
+        <v>155</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1545,13 +1535,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1561,14 +1551,14 @@
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>104</v>
+      <c r="D28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="306" x14ac:dyDescent="0.2">
@@ -1578,14 +1568,14 @@
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="306" x14ac:dyDescent="0.2">
@@ -1595,14 +1585,14 @@
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1612,14 +1602,14 @@
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1630,10 +1620,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1644,10 +1634,10 @@
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,10 +1648,10 @@
         <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1672,13 +1662,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>110</v>
+      <c r="E35" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1689,30 +1679,30 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>110</v>
+      <c r="E36" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>110</v>
+      <c r="E37" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1723,13 +1713,13 @@
         <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>104</v>
+      <c r="E38" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1740,30 +1730,30 @@
         <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>104</v>
+      <c r="E39" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>104</v>
+        <v>177</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1774,30 +1764,30 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>104</v>
+        <v>178</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1808,13 +1798,13 @@
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1825,30 +1815,30 @@
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1858,25 +1848,25 @@
       <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>180</v>
+      <c r="C46" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,10 +1877,10 @@
         <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1901,78 +1891,78 @@
         <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,13 +1973,13 @@
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>104</v>
+        <v>127</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1997,13 +1987,13 @@
         <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2011,409 +2001,409 @@
         <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>144</v>
+      <c r="C58" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>144</v>
+      <c r="C59" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>144</v>
+      <c r="C60" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>144</v>
+      <c r="C61" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>144</v>
+      <c r="C62" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>144</v>
+      <c r="C63" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>144</v>
+      <c r="C64" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>144</v>
+      <c r="C65" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>144</v>
+      <c r="C66" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>144</v>
+      <c r="C67" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>144</v>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>144</v>
+      <c r="C69" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>104</v>
+        <v>154</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>104</v>
+      <c r="E73" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>104</v>
+      <c r="E74" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
